--- a/public/template-funcionarios.xlsx
+++ b/public/template-funcionarios.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,6 +405,7 @@
     <col min="1" max="1" width="35.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -417,6 +418,9 @@
       <c r="C1" t="str">
         <v>Chave PIX (Opcional)</v>
       </c>
+      <c r="D1" t="str">
+        <v>INSTRUÇÕES</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -428,6 +432,9 @@
       <c r="C2" t="str">
         <v>joao@email.com</v>
       </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -439,81 +446,105 @@
       <c r="C3" t="str">
         <v/>
       </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>INSTRUÇÕES:</v>
+        <v/>
       </c>
       <c r="B4" t="str">
         <v/>
       </c>
       <c r="C4" t="str">
         <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>1. Preencha uma linha para cada funcionário nas colunas A, B e C</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>1. Preencha uma linha para cada funcionário</v>
+        <v/>
       </c>
       <c r="B5" t="str">
         <v/>
       </c>
       <c r="C5" t="str">
         <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>2. Nome deve ter pelo menos 3 caracteres</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2. Nome deve ter pelo menos 3 caracteres</v>
+        <v/>
       </c>
       <c r="B6" t="str">
         <v/>
       </c>
       <c r="C6" t="str">
         <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>3. CPF deve ser válido (apenas números ou formatado)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3. CPF deve ser válido (apenas números ou formatado)</v>
+        <v/>
       </c>
       <c r="B7" t="str">
         <v/>
       </c>
       <c r="C7" t="str">
         <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>4. Chave PIX é opcional (CPF, email, telefone ou chave aleatória)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4. Chave PIX é opcional (CPF, email, telefone ou chave aleatória)</v>
+        <v/>
       </c>
       <c r="B8" t="str">
         <v/>
       </c>
       <c r="C8" t="str">
         <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>5. Não altere ou remova esta linha de cabeçalho</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>5. Não altere ou remova a linha de cabeçalho</v>
+        <v/>
       </c>
       <c r="B9" t="str">
         <v/>
       </c>
       <c r="C9" t="str">
         <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>6. Salve o arquivo e faça o upload no sistema</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6. Salve o arquivo e faça o upload no sistema</v>
+        <v/>
       </c>
       <c r="B10" t="str">
         <v/>
       </c>
       <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
         <v/>
       </c>
     </row>
@@ -527,21 +558,27 @@
       <c r="C11" t="str">
         <v/>
       </c>
+      <c r="D11" t="str">
+        <v>Exemplos de preenchimento:</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Exemplo de preenchimento:</v>
+        <v/>
       </c>
       <c r="B12" t="str">
         <v/>
       </c>
       <c r="C12" t="str">
         <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>Maria Santos | 987.654.321-00 | maria@email.com</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Maria Santos | 987.654.321-00 | maria@email.com</v>
+        <v/>
       </c>
       <c r="B13" t="str">
         <v/>
@@ -549,21 +586,13 @@
       <c r="C13" t="str">
         <v/>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
+      <c r="D13" t="str">
         <v>Pedro Costa | 11122233344 | (11) 98765-4321</v>
-      </c>
-      <c r="B14" t="str">
-        <v/>
-      </c>
-      <c r="C14" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
   </ignoredErrors>
 </worksheet>
 </file>